--- a/my interface_2(more process)/keyword_data/kd.xlsx
+++ b/my interface_2(more process)/keyword_data/kd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>序号</t>
   </si>
@@ -78,7 +78,7 @@
     <t>register_normal</t>
   </si>
   <si>
-    <t>{"username":"guolin56","password":"guolin123456","email":"guolin@126.com"}</t>
+    <t>{"username":"guolin65","password":"guolin123456","email":"guolin@126.com"}</t>
   </si>
   <si>
     <t>00</t>
@@ -87,7 +87,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>{u'code': u'00', u'userid': 417470}</t>
+    <t>{u'code': u'00', u'userid': 503591}</t>
   </si>
   <si>
     <t>通过</t>
@@ -105,13 +105,13 @@
     <t>register_error</t>
   </si>
   <si>
-    <t>{"username":"guolin8","password":"guolin123456","email":"guolin@126.com"}</t>
+    <t>{"username":"guolin61","password":"guolin123456","email":"guolin@126.com"}</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>{u'username': u'guolin8', u'code': u'01'}</t>
+    <t>{u'username': u'guolin61', u'code': u'01'}</t>
   </si>
   <si>
     <t>3</t>
@@ -189,286 +189,292 @@
     <t>{"username":" ","password":"guolin123456","email":"guolin@126.com"}</t>
   </si>
   <si>
+    <t>{u'username': u' ', u'password': u'guolin123456', u'email': u'guolin@126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"guolin123456","email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'', u'password': u'guolin123456', u'email': u'guolin@126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>全部正确8位</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"guolin123456","email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'code': u'01'}</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>全部正确20位</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>长度超限（21位）</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"aaaaaa8888888888888888","email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'aaaaaa8888888888888888', u'email': u'guolin@126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"g1","email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'g1', u'email': u'guolin@126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"guolin","email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'guolin', u'email': u'guolin@126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"123456","email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'123456', u'email': u'guolin@126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"!@@#$%^&amp;*","email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'!@@#$%^&amp;*', u'email': u'guolin@126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"","email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'', u'email': u'guolin@126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>格式错误</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":" ,"email":"guolin@126.com"}</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>无@符</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"guolin123456","email":"guolin126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'guolin123456', u'email': u'guolin126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>无点</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"guolin123456","email":"guolin@126com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'guolin123456', u'email': u'guolin@126com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>@前置</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"guolin123456","email":"@guolin126.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'guolin123456', u'email': u'@guolin126.com', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>@后置</t>
+  </si>
+  <si>
+    <t>{"username":"guolin11","password":"guolin123456","email":"guolin126.com@"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin11', u'password': u'guolin123456', u'email': u'guolin126.com@', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>@中至但位置错误</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7","password":"guolin123456","email":"guolin126.c@om"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'guolin7', u'password': u'guolin123456', u'email': u'guolin126.c@om', u'code': u'02'}</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>登录与博文编辑</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>{"username":"guolin7", "password":"guolin123456"}</t>
+  </si>
+  <si>
+    <t>{u'token': u'2d98f8f7c755b923d4614107a24cd382', u'code': u'00', u'userid': 400850, u'login_time': u'2018-09-11 20:57:10'}</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>创建和查询用户博文</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>{"userid":400850, "token": "a1c0738a6cf054606b055a419c3390f3", "title":"python interface", "content":"python interface port test"}</t>
+  </si>
+  <si>
+    <t>{u'userid': u'400850', u'code': u'00', u'data': [{u'content': u'python interface port test', u'title': u'python interface'}]}</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>getBlogsOfUser</t>
+  </si>
+  <si>
+    <t>{"userid":3, "token": "123" }</t>
+  </si>
+  <si>
+    <t>{u'userid': 400850, u'code': u'00', u'data': [{u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5297, u'owner': 400850, u'posted_on': u'2018-09-11 20:57:11'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5295, u'owner': 400850, u'posted_on': u'2018-09-11 20:52:31'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5296, u'owner': 400850, u'posted_on': u'2018-09-11 20:52:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5293, u'owner': 400850, u'posted_on': u'2018-09-11 20:47:50'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5294, u'owner': 400850, u'posted_on': u'2018-09-11 20:47:50'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5291, u'owner': 400850, u'posted_on': u'2018-09-11 20:47:07'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5292, u'owner': 400850, u'posted_on': u'2018-09-11 20:47:07'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5290, u'owner': 400850, u'posted_on': u'2018-09-11 20:29:38'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5289, u'owner': 400850, u'posted_on': u'2018-09-11 20:29:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5287, u'owner': 400850, u'posted_on': u'2018-09-11 20:29:03'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5288, u'owner': 400850, u'posted_on': u'2018-09-11 20:29:03'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5285, u'owner': 400850, u'posted_on': u'2018-09-11 20:24:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5286, u'owner': 400850, u'posted_on': u'2018-09-11 20:24:59'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5283, u'owner': 400850, u'posted_on': u'2018-09-11 20:23:26'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5284, u'owner': 400850, u'posted_on': u'2018-09-11 20:23:26'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5281, u'owner': 400850, u'posted_on': u'2018-09-11 20:23:11'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5282, u'owner': 400850, u'posted_on': u'2018-09-11 20:23:11'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5279, u'owner': 400850, u'posted_on': u'2018-09-11 20:16:29'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5280, u'owner': 400850, u'posted_on': u'2018-09-11 20:16:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5277, u'owner': 400850, u'posted_on': u'2018-09-11 20:10:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5278, u'owner': 400850, u'posted_on': u'2018-09-11 20:10:56'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5275, u'owner': 400850, u'posted_on': u'2018-09-11 19:28:01'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5276, u'owner': 400850, u'posted_on': u'2018-09-11 19:28:01'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5273, u'owner': 400850, u'posted_on': u'2018-09-11 19:16:19'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5274, u'owner': 400850, u'posted_on': u'2018-09-11 19:16:19'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5271, u'owner': 400850, u'posted_on': u'2018-09-11 19:14:47'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5272, u'owner': 400850, u'posted_on': u'2018-09-11 19:14:47'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5269, u'owner': 400850, u'posted_on': u'2018-09-11 19:14:14'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5270, u'owner': 400850, u'posted_on': u'2018-09-11 19:14:14'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5267, u'owner': 400850, u'posted_on': u'2018-09-11 19:13:24'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5268, u'owner': 400850, u'posted_on': u'2018-09-11 19:13:24'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5265, u'owner': 400850, u'posted_on': u'2018-09-11 19:11:09'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5266, u'owner': 400850, u'posted_on': u'2018-09-11 19:11:09'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5263, u'owner': 400850, u'posted_on': u'2018-09-11 19:01:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5264, u'owner': 400850, u'posted_on': u'2018-09-11 19:01:55'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5261, u'owner': 400850, u'posted_on': u'2018-09-11 18:58:46'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5262, u'owner': 400850, u'posted_on': u'2018-09-11 18:58:46'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5259, u'owner': 400850, u'posted_on': u'2018-09-11 18:56:43'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5260, u'owner': 400850, u'posted_on': u'2018-09-11 18:56:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5257, u'owner': 400850, u'posted_on': u'2018-09-11 18:40:36'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5258, u'owner': 400850, u'posted_on': u'2018-09-11 18:40:36'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5256, u'owner': 400850, u'posted_on': u'2018-09-11 18:33:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5255, u'owner': 400850, u'posted_on': u'2018-09-11 18:33:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5253, u'owner': 400850, u'posted_on': u'2018-09-11 18:31:12'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5254, u'owner': 400850, u'posted_on': u'2018-09-11 18:31:12'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5252, u'owner': 400850, u'posted_on': u'2018-09-11 18:29:13'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5251, u'owner': 400850, u'posted_on': u'2018-09-11 18:29:12'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5045, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5046, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5043, u'owner': 400850, u'posted_on': u'2018-09-05 16:13:37'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5044, u'owner': 400850, u'posted_on': u'2018-09-05 16:13:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5041, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5042, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5040, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:14'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5039, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:13'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5038, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5037, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5035, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:16'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5036, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:16'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5033, u'owner': 400850, u'posted_on': u'2018-09-05 16:07:39'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5034, u'owner': 400850, u'posted_on': u'2018-09-05 16:07:39'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5031, u'owner': 400850, u'posted_on': u'2018-09-05 16:04:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5032, u'owner': 400850, u'posted_on': u'2018-09-05 16:04:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5029, u'owner': 400850, u'posted_on': u'2018-09-05 15:51:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5030, u'owner': 400850, u'posted_on': u'2018-09-05 15:51:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5028, u'owner': 400850, u'posted_on': u'2018-09-05 15:49:30'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5027, u'owner': 400850, u'posted_on': u'2018-09-05 15:49:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5025, u'owner': 400850, u'posted_on': u'2018-09-05 15:48:47'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5026, u'owner': 400850, u'posted_on': u'2018-09-05 15:48:47'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5023, u'owner': 400850, u'posted_on': u'2018-09-05 15:47:48'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5024, u'owner': 400850, u'posted_on': u'2018-09-05 15:47:48'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5021, u'owner': 400850, u'posted_on': u'2018-09-05 15:44:21'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5022, u'owner': 400850, u'posted_on': u'2018-09-05 15:44:21'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5019, u'owner': 400850, u'posted_on': u'2018-09-05 15:40:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5020, u'owner': 400850, u'posted_on': u'2018-09-05 15:40:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5018, u'owner': 400850, u'posted_on': u'2018-09-05 15:36:36'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5017, u'owner': 400850, u'posted_on': u'2018-09-05 15:36:35'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5015, u'owner': 400850, u'posted_on': u'2018-09-05 15:22:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5016, u'owner': 400850, u'posted_on': u'2018-09-05 15:22:49'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5013, u'owner': 400850, u'posted_on': u'2018-09-05 15:20:31'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5014, u'owner': 400850, u'posted_on': u'2018-09-05 15:20:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5012, u'owner': 400850, u'posted_on': u'2018-09-05 15:19:39'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5011, u'owner': 400850, u'posted_on': u'2018-09-05 15:18:22'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5010, u'owner': 400850, u'posted_on': u'2018-09-05 15:15:22'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5009, u'owner': 400850, u'posted_on': u'2018-09-05 15:15:21'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5008, u'owner': 400850, u'posted_on': u'2018-09-05 15:14:24'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5007, u'owner': 400850, u'posted_on': u'2018-09-05 15:14:23'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5005, u'owner': 400850, u'posted_on': u'2018-09-05 11:43:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5006, u'owner': 400850, u'posted_on': u'2018-09-05 11:43:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5004, u'owner': 400850, u'posted_on': u'2018-09-05 11:37:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5003, u'owner': 400850, u'posted_on': u'2018-09-05 11:37:36'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5001, u'owner': 400850, u'posted_on': u'2018-09-05 11:36:07'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5002, u'owner': 400850, u'posted_on': u'2018-09-05 11:36:07'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 4999, u'owner': 400850, u'posted_on': u'2018-09-05 11:34:57'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5000, u'owner': 400850, u'posted_on': u'2018-09-05 11:34:57'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3389, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:43'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3390, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3387, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:06'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3388, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:06'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3385, u'owner': 400850, u'posted_on': u'2018-08-24 14:30:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3386, u'owner': 400850, u'posted_on': u'2018-08-24 14:30:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3383, u'owner': 400850, u'posted_on': u'2018-08-24 14:29:58'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3384, u'owner': 400850, u'posted_on': u'2018-08-24 14:29:58'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3381, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:52'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3382, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:52'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3379, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:02'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3380, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:02'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3378, u'owner': 400850, u'posted_on': u'2018-08-24 14:27:32'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3377, u'owner': 400850, u'posted_on': u'2018-08-24 14:27:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3375, u'owner': 400850, u'posted_on': u'2018-08-24 14:26:22'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3376, u'owner': 400850, u'posted_on': u'2018-08-24 14:26:22'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3373, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3374, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3372, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:19'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3371, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:18'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3369, u'owner': 400850, u'posted_on': u'2018-08-24 14:23:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3370, u'owner': 400850, u'posted_on': u'2018-08-24 14:23:45'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3367, u'owner': 400850, u'posted_on': u'2018-08-24 14:21:29'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3368, u'owner': 400850, u'posted_on': u'2018-08-24 14:21:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3365, u'owner': 400850, u'posted_on': u'2018-08-22 14:42:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3366, u'owner': 400850, u'posted_on': u'2018-08-22 14:42:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3363, u'owner': 400850, u'posted_on': u'2018-08-22 14:21:41'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3364, u'owner': 400850, u'posted_on': u'2018-08-22 14:21:41'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3361, u'owner': 400850, u'posted_on': u'2018-08-22 14:20:16'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3362, u'owner': 400850, u'posted_on': u'2018-08-22 14:20:16'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3359, u'owner': 400850, u'posted_on': u'2018-08-22 14:11:13'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3360, u'owner': 400850, u'posted_on': u'2018-08-22 14:11:13'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3357, u'owner': 400850, u'posted_on': u'2018-08-22 13:59:26'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3358, u'owner': 400850, u'posted_on': u'2018-08-22 13:59:26'}]}</t>
+  </si>
+  <si>
+    <t>['data'][0]['update_time']:未匹配出结果；['data'][0]['title']:返回值与输入值不符；['data'][0]['owner']:未匹配出结果；</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>{"userid":400850, "token": "a1c0738a6cf054606b055a419c3390f3", "title":"python interface1", "content":"python interface port test1"}</t>
+  </si>
+  <si>
+    <t>{u'userid': u'400850', u'code': u'00', u'data': [{u'content': u'python interface port test1', u'title': u'python interface1'}]}</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>{"userid":400850, "token": "123" }</t>
+  </si>
+  <si>
+    <t>{u'userid': 400850, u'code': u'00', u'data': [{u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5297, u'owner': 400850, u'posted_on': u'2018-09-11 20:57:11'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5298, u'owner': 400850, u'posted_on': u'2018-09-11 20:57:11'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5295, u'owner': 400850, u'posted_on': u'2018-09-11 20:52:31'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5296, u'owner': 400850, u'posted_on': u'2018-09-11 20:52:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5293, u'owner': 400850, u'posted_on': u'2018-09-11 20:47:50'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5294, u'owner': 400850, u'posted_on': u'2018-09-11 20:47:50'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5291, u'owner': 400850, u'posted_on': u'2018-09-11 20:47:07'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5292, u'owner': 400850, u'posted_on': u'2018-09-11 20:47:07'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5290, u'owner': 400850, u'posted_on': u'2018-09-11 20:29:38'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5289, u'owner': 400850, u'posted_on': u'2018-09-11 20:29:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5287, u'owner': 400850, u'posted_on': u'2018-09-11 20:29:03'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5288, u'owner': 400850, u'posted_on': u'2018-09-11 20:29:03'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5285, u'owner': 400850, u'posted_on': u'2018-09-11 20:24:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5286, u'owner': 400850, u'posted_on': u'2018-09-11 20:24:59'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5283, u'owner': 400850, u'posted_on': u'2018-09-11 20:23:26'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5284, u'owner': 400850, u'posted_on': u'2018-09-11 20:23:26'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5281, u'owner': 400850, u'posted_on': u'2018-09-11 20:23:11'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5282, u'owner': 400850, u'posted_on': u'2018-09-11 20:23:11'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5279, u'owner': 400850, u'posted_on': u'2018-09-11 20:16:29'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5280, u'owner': 400850, u'posted_on': u'2018-09-11 20:16:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5277, u'owner': 400850, u'posted_on': u'2018-09-11 20:10:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5278, u'owner': 400850, u'posted_on': u'2018-09-11 20:10:56'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5275, u'owner': 400850, u'posted_on': u'2018-09-11 19:28:01'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5276, u'owner': 400850, u'posted_on': u'2018-09-11 19:28:01'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5273, u'owner': 400850, u'posted_on': u'2018-09-11 19:16:19'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5274, u'owner': 400850, u'posted_on': u'2018-09-11 19:16:19'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5271, u'owner': 400850, u'posted_on': u'2018-09-11 19:14:47'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5272, u'owner': 400850, u'posted_on': u'2018-09-11 19:14:47'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5269, u'owner': 400850, u'posted_on': u'2018-09-11 19:14:14'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5270, u'owner': 400850, u'posted_on': u'2018-09-11 19:14:14'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5267, u'owner': 400850, u'posted_on': u'2018-09-11 19:13:24'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5268, u'owner': 400850, u'posted_on': u'2018-09-11 19:13:24'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5265, u'owner': 400850, u'posted_on': u'2018-09-11 19:11:09'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5266, u'owner': 400850, u'posted_on': u'2018-09-11 19:11:09'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5263, u'owner': 400850, u'posted_on': u'2018-09-11 19:01:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5264, u'owner': 400850, u'posted_on': u'2018-09-11 19:01:55'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5261, u'owner': 400850, u'posted_on': u'2018-09-11 18:58:46'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5262, u'owner': 400850, u'posted_on': u'2018-09-11 18:58:46'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5259, u'owner': 400850, u'posted_on': u'2018-09-11 18:56:43'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5260, u'owner': 400850, u'posted_on': u'2018-09-11 18:56:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5257, u'owner': 400850, u'posted_on': u'2018-09-11 18:40:36'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5258, u'owner': 400850, u'posted_on': u'2018-09-11 18:40:36'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5256, u'owner': 400850, u'posted_on': u'2018-09-11 18:33:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5255, u'owner': 400850, u'posted_on': u'2018-09-11 18:33:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5253, u'owner': 400850, u'posted_on': u'2018-09-11 18:31:12'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5254, u'owner': 400850, u'posted_on': u'2018-09-11 18:31:12'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5252, u'owner': 400850, u'posted_on': u'2018-09-11 18:29:13'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5251, u'owner': 400850, u'posted_on': u'2018-09-11 18:29:12'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5045, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5046, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5043, u'owner': 400850, u'posted_on': u'2018-09-05 16:13:37'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5044, u'owner': 400850, u'posted_on': u'2018-09-05 16:13:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5041, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5042, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5040, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:14'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5039, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:13'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5038, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5037, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5035, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:16'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5036, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:16'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5033, u'owner': 400850, u'posted_on': u'2018-09-05 16:07:39'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5034, u'owner': 400850, u'posted_on': u'2018-09-05 16:07:39'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5031, u'owner': 400850, u'posted_on': u'2018-09-05 16:04:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5032, u'owner': 400850, u'posted_on': u'2018-09-05 16:04:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5029, u'owner': 400850, u'posted_on': u'2018-09-05 15:51:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5030, u'owner': 400850, u'posted_on': u'2018-09-05 15:51:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5028, u'owner': 400850, u'posted_on': u'2018-09-05 15:49:30'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5027, u'owner': 400850, u'posted_on': u'2018-09-05 15:49:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5025, u'owner': 400850, u'posted_on': u'2018-09-05 15:48:47'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5026, u'owner': 400850, u'posted_on': u'2018-09-05 15:48:47'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5023, u'owner': 400850, u'posted_on': u'2018-09-05 15:47:48'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5024, u'owner': 400850, u'posted_on': u'2018-09-05 15:47:48'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5021, u'owner': 400850, u'posted_on': u'2018-09-05 15:44:21'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5022, u'owner': 400850, u'posted_on': u'2018-09-05 15:44:21'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5019, u'owner': 400850, u'posted_on': u'2018-09-05 15:40:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5020, u'owner': 400850, u'posted_on': u'2018-09-05 15:40:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5018, u'owner': 400850, u'posted_on': u'2018-09-05 15:36:36'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5017, u'owner': 400850, u'posted_on': u'2018-09-05 15:36:35'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5015, u'owner': 400850, u'posted_on': u'2018-09-05 15:22:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5016, u'owner': 400850, u'posted_on': u'2018-09-05 15:22:49'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5013, u'owner': 400850, u'posted_on': u'2018-09-05 15:20:31'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5014, u'owner': 400850, u'posted_on': u'2018-09-05 15:20:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5012, u'owner': 400850, u'posted_on': u'2018-09-05 15:19:39'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5011, u'owner': 400850, u'posted_on': u'2018-09-05 15:18:22'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5010, u'owner': 400850, u'posted_on': u'2018-09-05 15:15:22'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5009, u'owner': 400850, u'posted_on': u'2018-09-05 15:15:21'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5008, u'owner': 400850, u'posted_on': u'2018-09-05 15:14:24'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5007, u'owner': 400850, u'posted_on': u'2018-09-05 15:14:23'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5005, u'owner': 400850, u'posted_on': u'2018-09-05 11:43:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5006, u'owner': 400850, u'posted_on': u'2018-09-05 11:43:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5004, u'owner': 400850, u'posted_on': u'2018-09-05 11:37:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5003, u'owner': 400850, u'posted_on': u'2018-09-05 11:37:36'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5001, u'owner': 400850, u'posted_on': u'2018-09-05 11:36:07'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5002, u'owner': 400850, u'posted_on': u'2018-09-05 11:36:07'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 4999, u'owner': 400850, u'posted_on': u'2018-09-05 11:34:57'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5000, u'owner': 400850, u'posted_on': u'2018-09-05 11:34:57'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3389, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:43'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3390, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3387, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:06'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3388, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:06'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3385, u'owner': 400850, u'posted_on': u'2018-08-24 14:30:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3386, u'owner': 400850, u'posted_on': u'2018-08-24 14:30:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3383, u'owner': 400850, u'posted_on': u'2018-08-24 14:29:58'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3384, u'owner': 400850, u'posted_on': u'2018-08-24 14:29:58'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3381, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:52'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3382, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:52'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3379, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:02'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3380, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:02'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3378, u'owner': 400850, u'posted_on': u'2018-08-24 14:27:32'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3377, u'owner': 400850, u'posted_on': u'2018-08-24 14:27:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3375, u'owner': 400850, u'posted_on': u'2018-08-24 14:26:22'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3376, u'owner': 400850, u'posted_on': u'2018-08-24 14:26:22'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3373, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3374, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3372, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:19'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3371, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:18'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3369, u'owner': 400850, u'posted_on': u'2018-08-24 14:23:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3370, u'owner': 400850, u'posted_on': u'2018-08-24 14:23:45'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3367, u'owner': 400850, u'posted_on': u'2018-08-24 14:21:29'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3368, u'owner': 400850, u'posted_on': u'2018-08-24 14:21:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3365, u'owner': 400850, u'posted_on': u'2018-08-22 14:42:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3366, u'owner': 400850, u'posted_on': u'2018-08-22 14:42:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3363, u'owner': 400850, u'posted_on': u'2018-08-22 14:21:41'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3364, u'owner': 400850, u'posted_on': u'2018-08-22 14:21:41'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3361, u'owner': 400850, u'posted_on': u'2018-08-22 14:20:16'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3362, u'owner': 400850, u'posted_on': u'2018-08-22 14:20:16'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3359, u'owner': 400850, u'posted_on': u'2018-08-22 14:11:13'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3360, u'owner': 400850, u'posted_on': u'2018-08-22 14:11:13'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3357, u'owner': 400850, u'posted_on': u'2018-08-22 13:59:26'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3358, u'owner': 400850, u'posted_on': u'2018-08-22 13:59:26'}]}</t>
+  </si>
+  <si>
+    <t>['data'][1]['update_time']:未匹配出结果；['data'][1]['title']:返回值与输入值不符；['data'][1]['owner']:未匹配出结果；</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>查询博文内容</t>
+  </si>
+  <si>
+    <t>getBlogContent</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>{u'code': u'00', u'data': [{u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5298, u'owner': 400850, u'posted_on': u'2018-09-11 20:57:11'}]}</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>批量查询博文</t>
+  </si>
+  <si>
+    <t>getBlogsContent</t>
+  </si>
+  <si>
+    <t>{u'code': u'00', u'data': [{u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5297, u'owner': 400850, u'posted_on': u'2018-09-11 20:57:11'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5298, u'owner': 400850, u'posted_on': u'2018-09-11 20:57:11'}]}</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>批量删除博文</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>{"userid":400850, "token": "868d26e05666c5aaeb76d361faa7448c", "articleId":[1,2,3]}</t>
+  </si>
+  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"guolin123456","email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>全部正确8位</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"guolin123456","email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'code': u'01'}</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>全部正确20位</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>长度超限（21位）</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"aaaaaa8888888888888888","email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'aaaaaa8888888888888888', u'email': u'guolin@126.com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"g1","email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'g1', u'email': u'guolin@126.com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"guolin","email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'guolin', u'email': u'guolin@126.com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"123456","email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'123456', u'email': u'guolin@126.com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"!@@#$%^&amp;*","email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'!@@#$%^&amp;*', u'email': u'guolin@126.com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"","email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'', u'email': u'guolin@126.com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>格式错误</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":" ,"email":"guolin@126.com"}</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>无@符</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"guolin123456","email":"guolin126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'guolin123456', u'email': u'guolin126.com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>无点</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"guolin123456","email":"guolin@126com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'guolin123456', u'email': u'guolin@126com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>@前置</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"guolin123456","email":"@guolin126.com"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'guolin123456', u'email': u'@guolin126.com', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>@后置</t>
-  </si>
-  <si>
-    <t>{"username":"guolin11","password":"guolin123456","email":"guolin126.com@"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin11', u'password': u'guolin123456', u'email': u'guolin126.com@', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>@中至但位置错误</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7","password":"guolin123456","email":"guolin126.c@om"}</t>
-  </si>
-  <si>
-    <t>{u'username': u'guolin7', u'password': u'guolin123456', u'email': u'guolin126.c@om', u'code': u'02'}</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>登录与博文编辑</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>{"username":"guolin7", "password":"guolin123456"}</t>
-  </si>
-  <si>
-    <t>{u'token': u'2d98f8f7c755b923d4614107a24cd382', u'code': u'00', u'userid': 400850, u'login_time': u'2018-09-05 16:14:42'}</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>创建和查询用户博文</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>{"userid":400850, "token": "a1c0738a6cf054606b055a419c3390f3", "title":"python interface", "content":"python interface port test"}</t>
-  </si>
-  <si>
-    <t>{u'userid': u'400850', u'code': u'00', u'data': [{u'content': u'python interface port test', u'title': u'python interface'}]}</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>getBlogsOfUser</t>
-  </si>
-  <si>
-    <t>{"userid":3, "token": "123" }</t>
-  </si>
-  <si>
-    <t>{u'userid': 400850, u'code': u'00', u'data': [{u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5045, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5043, u'owner': 400850, u'posted_on': u'2018-09-05 16:13:37'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5044, u'owner': 400850, u'posted_on': u'2018-09-05 16:13:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5041, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5042, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5040, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:14'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5039, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:13'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5038, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5037, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5035, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:16'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5036, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:16'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5033, u'owner': 400850, u'posted_on': u'2018-09-05 16:07:39'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5034, u'owner': 400850, u'posted_on': u'2018-09-05 16:07:39'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5031, u'owner': 400850, u'posted_on': u'2018-09-05 16:04:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5032, u'owner': 400850, u'posted_on': u'2018-09-05 16:04:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5029, u'owner': 400850, u'posted_on': u'2018-09-05 15:51:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5030, u'owner': 400850, u'posted_on': u'2018-09-05 15:51:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5028, u'owner': 400850, u'posted_on': u'2018-09-05 15:49:30'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5027, u'owner': 400850, u'posted_on': u'2018-09-05 15:49:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5025, u'owner': 400850, u'posted_on': u'2018-09-05 15:48:47'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5026, u'owner': 400850, u'posted_on': u'2018-09-05 15:48:47'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5023, u'owner': 400850, u'posted_on': u'2018-09-05 15:47:48'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5024, u'owner': 400850, u'posted_on': u'2018-09-05 15:47:48'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5021, u'owner': 400850, u'posted_on': u'2018-09-05 15:44:21'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5022, u'owner': 400850, u'posted_on': u'2018-09-05 15:44:21'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5019, u'owner': 400850, u'posted_on': u'2018-09-05 15:40:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5020, u'owner': 400850, u'posted_on': u'2018-09-05 15:40:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5018, u'owner': 400850, u'posted_on': u'2018-09-05 15:36:36'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5017, u'owner': 400850, u'posted_on': u'2018-09-05 15:36:35'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5015, u'owner': 400850, u'posted_on': u'2018-09-05 15:22:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5016, u'owner': 400850, u'posted_on': u'2018-09-05 15:22:49'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5013, u'owner': 400850, u'posted_on': u'2018-09-05 15:20:31'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5014, u'owner': 400850, u'posted_on': u'2018-09-05 15:20:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5012, u'owner': 400850, u'posted_on': u'2018-09-05 15:19:39'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5011, u'owner': 400850, u'posted_on': u'2018-09-05 15:18:22'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5010, u'owner': 400850, u'posted_on': u'2018-09-05 15:15:22'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5009, u'owner': 400850, u'posted_on': u'2018-09-05 15:15:21'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5008, u'owner': 400850, u'posted_on': u'2018-09-05 15:14:24'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5007, u'owner': 400850, u'posted_on': u'2018-09-05 15:14:23'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5005, u'owner': 400850, u'posted_on': u'2018-09-05 11:43:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5006, u'owner': 400850, u'posted_on': u'2018-09-05 11:43:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5004, u'owner': 400850, u'posted_on': u'2018-09-05 11:37:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5003, u'owner': 400850, u'posted_on': u'2018-09-05 11:37:36'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5001, u'owner': 400850, u'posted_on': u'2018-09-05 11:36:07'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5002, u'owner': 400850, u'posted_on': u'2018-09-05 11:36:07'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 4999, u'owner': 400850, u'posted_on': u'2018-09-05 11:34:57'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5000, u'owner': 400850, u'posted_on': u'2018-09-05 11:34:57'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3389, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:43'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3390, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3387, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:06'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3388, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:06'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3385, u'owner': 400850, u'posted_on': u'2018-08-24 14:30:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3386, u'owner': 400850, u'posted_on': u'2018-08-24 14:30:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3383, u'owner': 400850, u'posted_on': u'2018-08-24 14:29:58'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3384, u'owner': 400850, u'posted_on': u'2018-08-24 14:29:58'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3381, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:52'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3382, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:52'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3379, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:02'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3380, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:02'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3378, u'owner': 400850, u'posted_on': u'2018-08-24 14:27:32'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3377, u'owner': 400850, u'posted_on': u'2018-08-24 14:27:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3375, u'owner': 400850, u'posted_on': u'2018-08-24 14:26:22'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3376, u'owner': 400850, u'posted_on': u'2018-08-24 14:26:22'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3373, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3374, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3372, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:19'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3371, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:18'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3369, u'owner': 400850, u'posted_on': u'2018-08-24 14:23:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3370, u'owner': 400850, u'posted_on': u'2018-08-24 14:23:45'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3367, u'owner': 400850, u'posted_on': u'2018-08-24 14:21:29'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3368, u'owner': 400850, u'posted_on': u'2018-08-24 14:21:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3365, u'owner': 400850, u'posted_on': u'2018-08-22 14:42:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3366, u'owner': 400850, u'posted_on': u'2018-08-22 14:42:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3363, u'owner': 400850, u'posted_on': u'2018-08-22 14:21:41'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3364, u'owner': 400850, u'posted_on': u'2018-08-22 14:21:41'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3361, u'owner': 400850, u'posted_on': u'2018-08-22 14:20:16'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3362, u'owner': 400850, u'posted_on': u'2018-08-22 14:20:16'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3359, u'owner': 400850, u'posted_on': u'2018-08-22 14:11:13'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3360, u'owner': 400850, u'posted_on': u'2018-08-22 14:11:13'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3357, u'owner': 400850, u'posted_on': u'2018-08-22 13:59:26'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3358, u'owner': 400850, u'posted_on': u'2018-08-22 13:59:26'}]}</t>
-  </si>
-  <si>
-    <t>['data'][0]['update_time']:未匹配出结果；['data'][0]['title']:返回值与输入值不符；['data'][0]['owner']:未匹配出结果；</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>{"userid":400850, "token": "a1c0738a6cf054606b055a419c3390f3", "title":"python interface1", "content":"python interface port test1"}</t>
-  </si>
-  <si>
-    <t>{u'userid': u'400850', u'code': u'00', u'data': [{u'content': u'python interface port test1', u'title': u'python interface1'}]}</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>{"userid":400850, "token": "123" }</t>
-  </si>
-  <si>
-    <t>{u'userid': 400850, u'code': u'00', u'data': [{u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5045, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5046, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5043, u'owner': 400850, u'posted_on': u'2018-09-05 16:13:37'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5044, u'owner': 400850, u'posted_on': u'2018-09-05 16:13:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5041, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5042, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:56'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5040, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:14'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5039, u'owner': 400850, u'posted_on': u'2018-09-05 16:12:13'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5038, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5037, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:42'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5035, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:16'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5036, u'owner': 400850, u'posted_on': u'2018-09-05 16:10:16'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5033, u'owner': 400850, u'posted_on': u'2018-09-05 16:07:39'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5034, u'owner': 400850, u'posted_on': u'2018-09-05 16:07:39'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5031, u'owner': 400850, u'posted_on': u'2018-09-05 16:04:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5032, u'owner': 400850, u'posted_on': u'2018-09-05 16:04:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5029, u'owner': 400850, u'posted_on': u'2018-09-05 15:51:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5030, u'owner': 400850, u'posted_on': u'2018-09-05 15:51:59'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5028, u'owner': 400850, u'posted_on': u'2018-09-05 15:49:30'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5027, u'owner': 400850, u'posted_on': u'2018-09-05 15:49:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5025, u'owner': 400850, u'posted_on': u'2018-09-05 15:48:47'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5026, u'owner': 400850, u'posted_on': u'2018-09-05 15:48:47'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5023, u'owner': 400850, u'posted_on': u'2018-09-05 15:47:48'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5024, u'owner': 400850, u'posted_on': u'2018-09-05 15:47:48'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5021, u'owner': 400850, u'posted_on': u'2018-09-05 15:44:21'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5022, u'owner': 400850, u'posted_on': u'2018-09-05 15:44:21'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5019, u'owner': 400850, u'posted_on': u'2018-09-05 15:40:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5020, u'owner': 400850, u'posted_on': u'2018-09-05 15:40:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5018, u'owner': 400850, u'posted_on': u'2018-09-05 15:36:36'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5017, u'owner': 400850, u'posted_on': u'2018-09-05 15:36:35'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5015, u'owner': 400850, u'posted_on': u'2018-09-05 15:22:49'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5016, u'owner': 400850, u'posted_on': u'2018-09-05 15:22:49'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5013, u'owner': 400850, u'posted_on': u'2018-09-05 15:20:31'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5014, u'owner': 400850, u'posted_on': u'2018-09-05 15:20:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5012, u'owner': 400850, u'posted_on': u'2018-09-05 15:19:39'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5011, u'owner': 400850, u'posted_on': u'2018-09-05 15:18:22'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5010, u'owner': 400850, u'posted_on': u'2018-09-05 15:15:22'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5009, u'owner': 400850, u'posted_on': u'2018-09-05 15:15:21'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5008, u'owner': 400850, u'posted_on': u'2018-09-05 15:14:24'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5007, u'owner': 400850, u'posted_on': u'2018-09-05 15:14:23'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5005, u'owner': 400850, u'posted_on': u'2018-09-05 11:43:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5006, u'owner': 400850, u'posted_on': u'2018-09-05 11:43:55'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5004, u'owner': 400850, u'posted_on': u'2018-09-05 11:37:37'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5003, u'owner': 400850, u'posted_on': u'2018-09-05 11:37:36'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5001, u'owner': 400850, u'posted_on': u'2018-09-05 11:36:07'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5002, u'owner': 400850, u'posted_on': u'2018-09-05 11:36:07'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 4999, u'owner': 400850, u'posted_on': u'2018-09-05 11:34:57'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5000, u'owner': 400850, u'posted_on': u'2018-09-05 11:34:57'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3389, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:43'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3390, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:43'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3387, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:06'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3388, u'owner': 400850, u'posted_on': u'2018-08-24 14:34:06'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3385, u'owner': 400850, u'posted_on': u'2018-08-24 14:30:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3386, u'owner': 400850, u'posted_on': u'2018-08-24 14:30:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3383, u'owner': 400850, u'posted_on': u'2018-08-24 14:29:58'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3384, u'owner': 400850, u'posted_on': u'2018-08-24 14:29:58'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3381, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:52'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3382, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:52'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3379, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:02'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3380, u'owner': 400850, u'posted_on': u'2018-08-24 14:28:02'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3378, u'owner': 400850, u'posted_on': u'2018-08-24 14:27:32'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3377, u'owner': 400850, u'posted_on': u'2018-08-24 14:27:31'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3375, u'owner': 400850, u'posted_on': u'2018-08-24 14:26:22'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3376, u'owner': 400850, u'posted_on': u'2018-08-24 14:26:22'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3373, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3374, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3372, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:19'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3371, u'owner': 400850, u'posted_on': u'2018-08-24 14:25:18'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3369, u'owner': 400850, u'posted_on': u'2018-08-24 14:23:45'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3370, u'owner': 400850, u'posted_on': u'2018-08-24 14:23:45'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3367, u'owner': 400850, u'posted_on': u'2018-08-24 14:21:29'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3368, u'owner': 400850, u'posted_on': u'2018-08-24 14:21:29'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3365, u'owner': 400850, u'posted_on': u'2018-08-22 14:42:33'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3366, u'owner': 400850, u'posted_on': u'2018-08-22 14:42:33'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3363, u'owner': 400850, u'posted_on': u'2018-08-22 14:21:41'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3364, u'owner': 400850, u'posted_on': u'2018-08-22 14:21:41'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3361, u'owner': 400850, u'posted_on': u'2018-08-22 14:20:16'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3362, u'owner': 400850, u'posted_on': u'2018-08-22 14:20:16'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3359, u'owner': 400850, u'posted_on': u'2018-08-22 14:11:13'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3360, u'owner': 400850, u'posted_on': u'2018-08-22 14:11:13'}, {u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 3357, u'owner': 400850, u'posted_on': u'2018-08-22 13:59:26'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 3358, u'owner': 400850, u'posted_on': u'2018-08-22 13:59:26'}]}</t>
-  </si>
-  <si>
-    <t>['data'][1]['update_time']:未匹配出结果；['data'][1]['title']:返回值与输入值不符；['data'][1]['owner']:未匹配出结果；</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>查询博文内容</t>
-  </si>
-  <si>
-    <t>getBlogContent</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>{u'code': u'00', u'data': [{u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5046, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}]}</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>批量查询博文</t>
-  </si>
-  <si>
-    <t>getBlogsContent</t>
-  </si>
-  <si>
-    <t>{u'code': u'00', u'data': [{u'update_time': None, u'title': u'python interface', u'content': u'python interface port test', u'articleId': 5045, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}, {u'update_time': None, u'title': u'python interface1', u'content': u'python interface port test1', u'articleId': 5046, u'owner': 400850, u'posted_on': u'2018-09-05 16:14:42'}]}</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>批量删除博文</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>{"userid":400850, "token": "868d26e05666c5aaeb76d361faa7448c", "articleId":[1,2,3]}</t>
   </si>
 </sst>
 </file>
@@ -977,8 +983,8 @@
     <col customWidth="1" max="11" min="11" style="12" width="26"/>
     <col customWidth="1" max="12" min="12" style="12" width="6.75"/>
     <col customWidth="1" max="13" min="13" style="12" width="6.25"/>
-    <col customWidth="1" max="110" min="14" style="12" width="9"/>
-    <col customWidth="1" max="16384" min="111" style="12" width="9"/>
+    <col customWidth="1" max="124" min="14" style="12" width="9"/>
+    <col customWidth="1" max="16384" min="125" style="12" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="28.5" r="1" s="15" spans="1:13">
@@ -1278,11 +1284,15 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="3" t="s"/>
       <c r="K9" s="3" t="s"/>
-      <c r="L9" s="3" t="s"/>
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="M9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1307,24 +1317,28 @@
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="3" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="K10" s="3" t="s"/>
-      <c r="L10" s="3" t="s"/>
+      <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="M10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="28.5" r="11" spans="1:13">
       <c r="A11" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -1333,22 +1347,20 @@
         <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s"/>
       <c r="L11" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>25</v>
@@ -1356,34 +1368,32 @@
     </row>
     <row customHeight="1" ht="28.5" r="12" spans="1:13">
       <c r="A12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="K12" s="3" t="s"/>
       <c r="L12" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>25</v>
@@ -1391,7 +1401,7 @@
     </row>
     <row customHeight="1" ht="28.5" r="13" spans="1:13">
       <c r="A13" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>27</v>
@@ -1403,22 +1413,20 @@
         <v>28</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K13" s="3" t="s"/>
       <c r="L13" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>25</v>
@@ -1426,10 +1434,10 @@
     </row>
     <row customHeight="1" ht="28.5" r="14" spans="1:13">
       <c r="A14" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -1438,7 +1446,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
@@ -1447,7 +1455,7 @@
         <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="3" t="s"/>
       <c r="L14" s="3" t="s">
@@ -1459,7 +1467,7 @@
     </row>
     <row customHeight="1" ht="28.5" r="15" spans="1:13">
       <c r="A15" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>38</v>
@@ -1471,7 +1479,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1480,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" s="3" t="s"/>
       <c r="L15" s="3" t="s">
@@ -1492,7 +1500,7 @@
     </row>
     <row customHeight="1" ht="42.75" r="16" spans="1:13">
       <c r="A16" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>42</v>
@@ -1504,7 +1512,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1513,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16" s="3" t="s"/>
       <c r="L16" s="3" t="s">
@@ -1525,7 +1533,7 @@
     </row>
     <row customHeight="1" ht="28.5" r="17" spans="1:13">
       <c r="A17" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>47</v>
@@ -1537,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -1546,7 +1554,7 @@
         <v>22</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" s="3" t="s"/>
       <c r="L17" s="3" t="s">
@@ -1558,7 +1566,7 @@
     </row>
     <row customHeight="1" ht="28.5" r="18" spans="1:13">
       <c r="A18" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>51</v>
@@ -1570,7 +1578,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>35</v>
@@ -1579,7 +1587,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" s="3" t="s"/>
       <c r="L18" s="3" t="s">
@@ -1591,10 +1599,10 @@
     </row>
     <row customHeight="1" ht="28.5" r="19" spans="1:13">
       <c r="A19" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
@@ -1603,7 +1611,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>35</v>
@@ -1612,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" s="3" t="s"/>
       <c r="L19" s="3" t="s">
@@ -1624,10 +1632,10 @@
     </row>
     <row customHeight="1" ht="28.5" r="20" spans="1:13">
       <c r="A20" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
@@ -1636,7 +1644,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>35</v>
@@ -1645,10 +1653,10 @@
         <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>45</v>
@@ -1659,7 +1667,7 @@
     </row>
     <row customHeight="1" ht="42.75" r="21" spans="1:13">
       <c r="A21" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>59</v>
@@ -1671,7 +1679,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>35</v>
@@ -1680,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" s="3" t="s"/>
       <c r="L21" s="3" t="s">
@@ -1692,13 +1700,13 @@
     </row>
     <row customHeight="1" ht="42.75" r="22" spans="1:13">
       <c r="A22" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
@@ -1707,7 +1715,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>35</v>
@@ -1716,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" s="3" t="s"/>
       <c r="L22" s="3" t="s">
@@ -1728,10 +1736,10 @@
     </row>
     <row customHeight="1" ht="42.75" r="23" spans="1:13">
       <c r="A23" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -1740,7 +1748,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>35</v>
@@ -1749,7 +1757,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23" s="3" t="s"/>
       <c r="L23" s="3" t="s">
@@ -1761,10 +1769,10 @@
     </row>
     <row customHeight="1" ht="42.75" r="24" spans="1:13">
       <c r="A24" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
@@ -1773,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>35</v>
@@ -1782,7 +1790,7 @@
         <v>22</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24" s="3" t="s"/>
       <c r="L24" s="3" t="s">
@@ -1794,10 +1802,10 @@
     </row>
     <row customHeight="1" ht="42.75" r="25" spans="1:13">
       <c r="A25" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
@@ -1806,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>35</v>
@@ -1815,7 +1823,7 @@
         <v>22</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25" s="3" t="s"/>
       <c r="L25" s="3" t="s">
@@ -1827,10 +1835,10 @@
     </row>
     <row customHeight="1" ht="42.75" r="26" spans="1:13">
       <c r="A26" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
@@ -1839,7 +1847,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>35</v>
@@ -1848,7 +1856,7 @@
         <v>22</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K26" s="3" t="s"/>
       <c r="L26" s="3" t="s">
@@ -1860,13 +1868,13 @@
     </row>
     <row customHeight="1" ht="57" r="27" spans="1:13">
       <c r="A27" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>16</v>
@@ -1875,10 +1883,10 @@
         <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>21</v>
@@ -1887,7 +1895,7 @@
         <v>22</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K27" s="3" t="s"/>
       <c r="L27" s="3" t="s">
@@ -1899,10 +1907,10 @@
     </row>
     <row customHeight="1" ht="57" r="28" spans="1:13">
       <c r="A28" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>16</v>
@@ -1911,10 +1919,10 @@
         <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>21</v>
@@ -1923,7 +1931,7 @@
         <v>22</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K28" s="3" t="s"/>
       <c r="L28" s="3" t="s">
@@ -1935,7 +1943,7 @@
     </row>
     <row customHeight="1" ht="57" r="29" spans="1:13">
       <c r="A29" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>16</v>
@@ -1944,10 +1952,10 @@
         <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>21</v>
@@ -1956,10 +1964,10 @@
         <v>22</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>45</v>
@@ -1970,7 +1978,7 @@
     </row>
     <row customHeight="1" ht="57" r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>16</v>
@@ -1979,10 +1987,10 @@
         <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>21</v>
@@ -1991,7 +1999,7 @@
         <v>22</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K30" s="3" t="s"/>
       <c r="L30" s="3" t="s">
@@ -2003,7 +2011,7 @@
     </row>
     <row customHeight="1" ht="51" r="31" spans="1:13">
       <c r="A31" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>16</v>
@@ -2012,10 +2020,10 @@
         <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>21</v>
@@ -2024,10 +2032,10 @@
         <v>22</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>45</v>
@@ -2038,10 +2046,10 @@
     </row>
     <row customHeight="1" ht="51" r="32" spans="1:13">
       <c r="A32" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>16</v>
@@ -2050,10 +2058,10 @@
         <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>21</v>
@@ -2062,7 +2070,7 @@
         <v>22</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K32" s="3" t="s"/>
       <c r="L32" s="3" t="s">
@@ -2074,10 +2082,10 @@
     </row>
     <row customHeight="1" ht="51" r="33" spans="1:13">
       <c r="A33" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>16</v>
@@ -2086,10 +2094,10 @@
         <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>21</v>
@@ -2098,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K33" s="3" t="s"/>
       <c r="L33" s="3" t="s">
@@ -2110,10 +2118,10 @@
     </row>
     <row customHeight="1" ht="51" r="34" spans="1:13">
       <c r="A34" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>16</v>
@@ -2122,16 +2130,16 @@
         <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="J34" s="3" t="s"/>
       <c r="K34" s="3" t="s"/>
